--- a/resultados/comportamentoMMQ_slot02.xlsx
+++ b/resultados/comportamentoMMQ_slot02.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0339901861497772</v>
+        <v>0.5936347828989482</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06862023792374623</v>
+        <v>0.00171677105784503</v>
       </c>
       <c r="H2" t="n">
-        <v>8.91638268870692</v>
+        <v>5.071843390340931</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1698467888681759</v>
+        <v>0.8646589038559465</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.932378003149466</v>
+        <v>0.06643262818383666</v>
       </c>
       <c r="H3" t="n">
-        <v>19.60254317069807</v>
+        <v>4.908500477673903</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.02318666557298271</v>
+        <v>0.5884994122987409</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.00201401438167573</v>
+        <v>0.0003360407362842386</v>
       </c>
       <c r="H4" t="n">
-        <v>5.766211668499553</v>
+        <v>5.071607057302982</v>
       </c>
     </row>
     <row r="5">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.02318666557298271</v>
+        <v>0.5884994122987409</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9979880123844155</v>
+        <v>1.000336097204297</v>
       </c>
       <c r="H5" t="n">
-        <v>5.766211668499553</v>
+        <v>5.071607057302982</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1376800111084816</v>
+        <v>0.8605463105479416</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1258142996364771</v>
+        <v>0.01302903786516467</v>
       </c>
       <c r="H6" t="n">
-        <v>8.177224422937071</v>
+        <v>4.911571290150497</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.08956249801539586</v>
+        <v>0.8648628436303792</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13.67672750685191</v>
+        <v>4.992728037356094</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4127415500788059</v>
+        <v>0.006738114494521031</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004196601367744632</v>
+        <v>-5.838771437995401e-05</v>
       </c>
     </row>
     <row r="8">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.08227174140588915</v>
+        <v>0.7470374314212931</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3893696456971607</v>
+        <v>0.003920237039102599</v>
       </c>
       <c r="H8" t="n">
-        <v>14.2460699357941</v>
+        <v>5.071940075292984</v>
       </c>
     </row>
     <row r="9">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.2787828644642545</v>
+        <v>0.9208218238021977</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.291836758232357</v>
+        <v>0.07076032004871992</v>
       </c>
       <c r="H9" t="n">
-        <v>29.03497648577132</v>
+        <v>4.94694711085885</v>
       </c>
     </row>
     <row r="10">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.06702473290473748</v>
+        <v>0.7440647081886643</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0124949014955497</v>
+        <v>0.0007644799774679739</v>
       </c>
       <c r="H10" t="n">
-        <v>6.907412618256704</v>
+        <v>5.07205646628258</v>
       </c>
     </row>
     <row r="11">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.06702473290473748</v>
+        <v>0.7440647081886643</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9875828356765283</v>
+        <v>1.000764772266764</v>
       </c>
       <c r="H11" t="n">
-        <v>6.907412618256704</v>
+        <v>5.07205646628258</v>
       </c>
     </row>
     <row r="12">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.2456044316446806</v>
+        <v>0.9188586340302194</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.276703306348037</v>
+        <v>0.01381166236777467</v>
       </c>
       <c r="H12" t="n">
-        <v>11.41393049299148</v>
+        <v>4.949740909603079</v>
       </c>
     </row>
     <row r="13">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.2065116380170816</v>
+        <v>0.9601366610635291</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25.71191245110225</v>
+        <v>4.989222474464854</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.300343398248515</v>
+        <v>0.01448569478680042</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0545992500728958</v>
+        <v>-0.0002709091730178907</v>
       </c>
     </row>
     <row r="14">
@@ -860,7 +860,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2133449724159159</v>
+        <v>0.5328746594191881</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2049025654.104708</v>
+        <v>216363.354518376</v>
       </c>
       <c r="H14" t="n">
-        <v>154548485611.9116</v>
+        <v>2990811599.24747</v>
       </c>
     </row>
     <row r="15">
@@ -892,7 +892,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.05027261783656918</v>
+        <v>0.7505379372007349</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8774669053.117039</v>
+        <v>12585126.01210747</v>
       </c>
       <c r="H15" t="n">
-        <v>160827321526.5002</v>
+        <v>2955266233.778116</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +924,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3068390953443205</v>
+        <v>0.5276278640697497</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01333237504346224</v>
+        <v>7.219513653492322e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>150061751704.1829</v>
+        <v>2990783900.703066</v>
       </c>
     </row>
     <row r="17">
@@ -956,7 +956,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3068390953443205</v>
+        <v>0.5276278640697497</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.013421647452177</v>
+        <v>1.000072197742667</v>
       </c>
       <c r="H17" t="n">
-        <v>150061751704.1829</v>
+        <v>2990783900.703066</v>
       </c>
     </row>
     <row r="18">
@@ -988,7 +988,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1142125048714522</v>
+        <v>0.7455359171400529</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1008,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07175758417866228</v>
+        <v>0.004206088804959467</v>
       </c>
       <c r="H18" t="n">
-        <v>151090624583.6357</v>
+        <v>2955440817.599847</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2409548619169859</v>
+        <v>0.6684322736501521</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>167952170671.0951</v>
+        <v>2979684888.073363</v>
       </c>
       <c r="G19" t="n">
-        <v>-929571025.7138224</v>
+        <v>668325.0299131095</v>
       </c>
       <c r="H19" t="n">
-        <v>114561410.7622511</v>
+        <v>-3251.522844566202</v>
       </c>
     </row>
     <row r="20">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.1032528288588555</v>
+        <v>0.03344556557264766</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2630499987.067162</v>
+        <v>89789.31990984699</v>
       </c>
       <c r="H20" t="n">
-        <v>145487057956.8393</v>
+        <v>3013538309.110785</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.006252481844521799</v>
+        <v>0.1617818787309398</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4712056599.440701</v>
+        <v>6588648.552286071</v>
       </c>
       <c r="H21" t="n">
-        <v>163132916774.2801</v>
+        <v>2993779283.938383</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.1209313431393274</v>
+        <v>0.03418991046249392</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01730097986991571</v>
+        <v>3.010870809699997e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>138797910557.5135</v>
+        <v>3013471275.903494</v>
       </c>
     </row>
     <row r="23">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.1209313431393274</v>
+        <v>0.03418991046249392</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.017451508667691</v>
+        <v>1.000030109161369</v>
       </c>
       <c r="H23" t="n">
-        <v>138797910557.5135</v>
+        <v>3013471275.903494</v>
       </c>
     </row>
     <row r="24">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.01456957359164106</v>
+        <v>0.1633924339377233</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04371410967666658</v>
+        <v>0.002196014006302407</v>
       </c>
       <c r="H24" t="n">
-        <v>151736595600.0982</v>
+        <v>2993715034.886136</v>
       </c>
     </row>
     <row r="25">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2415289174998944</v>
+        <v>0.4011533277569161</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1229,13 +1229,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>191106464299.3503</v>
+        <v>2992487334.088567</v>
       </c>
       <c r="G25" t="n">
-        <v>-9811156288.163086</v>
+        <v>1371359.388906155</v>
       </c>
       <c r="H25" t="n">
-        <v>592459822.6300119</v>
+        <v>-14239.66743329222</v>
       </c>
     </row>
     <row r="26">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.02781257064539397</v>
+        <v>0.1495751968575834</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.08944050345296886</v>
+        <v>0.00122981074849761</v>
       </c>
       <c r="H26" t="n">
-        <v>11.61206360514459</v>
+        <v>6.647181246034827</v>
       </c>
     </row>
     <row r="27">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.1507415765624213</v>
+        <v>0.3949891708725236</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.447665465248749</v>
+        <v>0.1304056221969047</v>
       </c>
       <c r="H27" t="n">
-        <v>30.52970725422304</v>
+        <v>6.201202021033749</v>
       </c>
     </row>
     <row r="28">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0138387104218719</v>
+        <v>0.1427750404383021</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.001384826394848903</v>
+        <v>0.0001921908482547352</v>
       </c>
       <c r="H28" t="n">
-        <v>6.19552580136299</v>
+        <v>6.639352217947059</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.0138387104218719</v>
+        <v>0.1427750404383021</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9986161320347525</v>
+        <v>1.000192209318099</v>
       </c>
       <c r="H29" t="n">
-        <v>6.19552580136299</v>
+        <v>6.639352217947059</v>
       </c>
     </row>
     <row r="30">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1020808543497084</v>
+        <v>0.3822196506677017</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1164640718652828</v>
+        <v>0.02051909921763718</v>
       </c>
       <c r="H30" t="n">
-        <v>8.820453251876513</v>
+        <v>6.188634695856996</v>
       </c>
     </row>
     <row r="31">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.07339237959772155</v>
+        <v>0.3211531627961642</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>19.15376127634913</v>
+        <v>6.468903624453617</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5374621472869019</v>
+        <v>0.006583745610449134</v>
       </c>
       <c r="H31" t="n">
-        <v>0.004480216438339331</v>
+        <v>-2.803107257566231e-05</v>
       </c>
     </row>
     <row r="32">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.06751134350978355</v>
+        <v>0.03274126150517098</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.5009084132667528</v>
+        <v>-1.647152214982005</v>
       </c>
       <c r="H32" t="n">
-        <v>20.0053050374834</v>
+        <v>100.2737794887561</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.2498352534605588</v>
+        <v>0.06802089684237433</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-13.47943390605435</v>
+        <v>-76.12258347053638</v>
       </c>
       <c r="H33" t="n">
-        <v>47.03335251699907</v>
+        <v>301.2033823184164</v>
       </c>
     </row>
     <row r="34">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1508,9 +1508,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>0.05098660600848799</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -1519,12 +1517,8 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
-      <c r="G34" t="n">
-        <v>-0.009541739891239064</v>
-      </c>
-      <c r="H34" t="n">
-        <v>7.421618356225825</v>
-      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1532,7 +1526,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1540,9 +1534,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0.05098660600848799</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -1551,12 +1543,8 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.9905036380659269</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7.421618356225825</v>
-      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1564,7 +1552,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1572,9 +1560,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>0.2069785522964881</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -1583,12 +1569,8 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
-      <c r="G36" t="n">
-        <v>-0.2689286283817902</v>
-      </c>
-      <c r="H36" t="n">
-        <v>12.85008543390158</v>
-      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1596,7 +1578,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1605,7 +1587,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1709791448038654</v>
+        <v>0.07366101733849972</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1613,13 +1595,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>38.05757162172375</v>
+        <v>225.8170084697899</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.962581129299529</v>
+        <v>-9.615209552523623</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05724820269843667</v>
+        <v>0.09265182950629787</v>
       </c>
     </row>
     <row r="38">
@@ -1628,7 +1610,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1637,7 +1619,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5761724597010675</v>
+        <v>0.3397681664714593</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1648,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>91053.99062202158</v>
+        <v>0.001268498065702452</v>
       </c>
       <c r="H38" t="n">
-        <v>3675191.836876972</v>
+        <v>5.501372957751498</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1642,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1669,7 +1651,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.894735954149553</v>
+        <v>0.6302108888328474</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1680,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1450185.275440996</v>
+        <v>0.07921461040713877</v>
       </c>
       <c r="H39" t="n">
-        <v>1521192.931126074</v>
+        <v>5.270381424424514</v>
       </c>
     </row>
     <row r="40">
@@ -1692,7 +1674,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1701,7 +1683,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.4784810269161754</v>
+        <v>0.331146721701527</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1712,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02264854017930155</v>
+        <v>0.0002311415363455257</v>
       </c>
       <c r="H40" t="n">
-        <v>3337235.221392098</v>
+        <v>5.500048960036812</v>
       </c>
     </row>
     <row r="41">
@@ -1724,7 +1706,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1733,7 +1715,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.4784810269161754</v>
+        <v>0.331146721701527</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1744,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.022906965664289</v>
+        <v>1.000231168251609</v>
       </c>
       <c r="H41" t="n">
-        <v>3337235.221392098</v>
+        <v>5.500048960036812</v>
       </c>
     </row>
     <row r="42">
@@ -1756,7 +1738,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1765,7 +1747,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8412272214422285</v>
+        <v>0.6194972609168455</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1776,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3838113581365909</v>
+        <v>0.01449610526800431</v>
       </c>
       <c r="H42" t="n">
-        <v>1834514.074005418</v>
+        <v>5.272064970089306</v>
       </c>
     </row>
     <row r="43">
@@ -1788,7 +1770,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1797,7 +1779,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9072859910489192</v>
+        <v>0.5746477364270778</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1805,13 +1787,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1843514.666527648</v>
+        <v>5.400590159266282</v>
       </c>
       <c r="G43" t="n">
-        <v>365805.5661744202</v>
+        <v>0.005660226814016717</v>
       </c>
       <c r="H43" t="n">
-        <v>-7044.912193651247</v>
+        <v>-3.404440890166141e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1820,7 +1802,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1829,7 +1811,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.1134128934769504</v>
+        <v>0.7564331519332076</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1840,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>126523.5671574438</v>
+        <v>0.001341063756484773</v>
       </c>
       <c r="H44" t="n">
-        <v>3833301.780343244</v>
+        <v>5.56143152224737</v>
       </c>
     </row>
     <row r="45">
@@ -1852,7 +1834,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1861,7 +1843,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.2160822758625966</v>
+        <v>0.5943597570362872</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1872,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1647761.146071407</v>
+        <v>0.02549069551565357</v>
       </c>
       <c r="H45" t="n">
-        <v>1664801.948859128</v>
+        <v>5.517549786818933</v>
       </c>
     </row>
     <row r="46">
@@ -1884,7 +1866,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1892,7 +1874,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>0.7560705020558762</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -1901,8 +1885,12 @@
       <c r="F46" t="n">
         <v>0</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0.000239619258839736</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5.561506368984532</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1910,7 +1898,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1918,7 +1906,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>0.7560705020558762</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -1927,8 +1917,12 @@
       <c r="F47" t="n">
         <v>0</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1.000239647969827</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5.561506368984532</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1936,7 +1930,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1944,7 +1938,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>0.5943897462466451</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -1953,8 +1949,12 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0.004555846327463153</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5.518049718115121</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.2423449587884367</v>
+        <v>0.7763906676626082</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1207257.243620146</v>
+        <v>5.571946934892819</v>
       </c>
       <c r="G49" t="n">
-        <v>669843.1264794644</v>
+        <v>0.0003276807412779136</v>
       </c>
       <c r="H49" t="n">
-        <v>-19404.26997578645</v>
+        <v>1.876635213345912e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.02226022007954232</v>
+        <v>0.3880901580000762</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.05434477785398031</v>
+        <v>0.002183485576040009</v>
       </c>
       <c r="H50" t="n">
-        <v>10.13528432736608</v>
+        <v>5.504641649971473</v>
       </c>
     </row>
     <row r="51">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1319424721609559</v>
+        <v>0.6815940297791108</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.072549189807267</v>
+        <v>0.1096212300830949</v>
       </c>
       <c r="H51" t="n">
-        <v>26.25351419089791</v>
+        <v>5.207442361111094</v>
       </c>
     </row>
     <row r="52">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.01147641257158091</v>
+        <v>0.3785364387141485</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0008884557178183839</v>
+        <v>0.0003963890592273514</v>
       </c>
       <c r="H52" t="n">
-        <v>6.0372839146655</v>
+        <v>5.502724362948678</v>
       </c>
     </row>
     <row r="53">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.01147641257158091</v>
+        <v>0.3785364387141485</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9991119388421046</v>
+        <v>1.000396467631752</v>
       </c>
       <c r="H53" t="n">
-        <v>6.0372839146655</v>
+        <v>5.502724362948678</v>
       </c>
     </row>
     <row r="54">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.09051580112309723</v>
+        <v>0.6705550894616097</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2142,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.09566118974383758</v>
+        <v>0.01998631896025169</v>
       </c>
       <c r="H54" t="n">
-        <v>8.251930716164832</v>
+        <v>5.212026083776627</v>
       </c>
     </row>
     <row r="55">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.05896744480036889</v>
+        <v>0.6591956808290382</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2171,13 +2171,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>15.85768964487891</v>
+        <v>5.359379891682078</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.3268402691641151</v>
+        <v>0.009922841550475101</v>
       </c>
       <c r="H55" t="n">
-        <v>0.002179963930481079</v>
+        <v>-7.441688436956785e-05</v>
       </c>
     </row>
     <row r="56">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.05801518701485077</v>
+        <v>0.4807963166361293</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.3510567319251898</v>
+        <v>0.001558250833798172</v>
       </c>
       <c r="H56" t="n">
-        <v>17.3053165193259</v>
+        <v>5.605419062831919</v>
       </c>
     </row>
     <row r="57">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.2296382836556424</v>
+        <v>0.3820359648218005</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2238,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-11.24100010066284</v>
+        <v>0.02645703906039763</v>
       </c>
       <c r="H57" t="n">
-        <v>41.69346030799738</v>
+        <v>5.562253395002915</v>
       </c>
     </row>
     <row r="58">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.0440353123874307</v>
+        <v>0.4803653129070481</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2270,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.006956868335497671</v>
+        <v>0.0002766381979669831</v>
       </c>
       <c r="H58" t="n">
-        <v>7.065535849978789</v>
+        <v>5.605424430283982</v>
       </c>
     </row>
     <row r="59">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.0440353123874307</v>
+        <v>0.4803653129070481</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9930672746540454</v>
+        <v>1.000276676465842</v>
       </c>
       <c r="H59" t="n">
-        <v>7.065535849978789</v>
+        <v>5.605424430283982</v>
       </c>
     </row>
     <row r="60">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.1911214935419461</v>
+        <v>0.3824903545646228</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2332621943758237</v>
+        <v>0.004701851222673345</v>
       </c>
       <c r="H60" t="n">
-        <v>11.81660295140317</v>
+        <v>5.562550605839903</v>
       </c>
     </row>
     <row r="61">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.148191709939576</v>
+        <v>0.5070595246867019</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2363,13 +2363,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>32.0200954771441</v>
+        <v>5.621476595688345</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.082207197550863</v>
+        <v>-0.0001887492686372539</v>
       </c>
       <c r="H61" t="n">
-        <v>0.03462300931251347</v>
+        <v>3.717021494543769e-05</v>
       </c>
     </row>
     <row r="62">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.01358256140685544</v>
+        <v>0.7834514912008579</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-1876178.470666623</v>
+        <v>3284043546.350649</v>
       </c>
       <c r="H62" t="n">
-        <v>3178972330.211967</v>
+        <v>133234588254.4193</v>
       </c>
     </row>
     <row r="63">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.09721591357295398</v>
+        <v>0.8951285354918909</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-207210005.2696883</v>
+        <v>45733447488.70071</v>
       </c>
       <c r="H63" t="n">
-        <v>3865210515.985341</v>
+        <v>63097075942.34494</v>
       </c>
     </row>
     <row r="64">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.006723119957348254</v>
+        <v>0.7701932088700466</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0002272543961627186</v>
+        <v>0.01904913371828381</v>
       </c>
       <c r="H64" t="n">
-        <v>3072300289.743954</v>
+        <v>136008260542.5627</v>
       </c>
     </row>
     <row r="65">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.006723119957348254</v>
+        <v>0.7701932088700466</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9997727714241617</v>
+        <v>1.019231726031646</v>
       </c>
       <c r="H65" t="n">
-        <v>3072300289.743954</v>
+        <v>136008260542.5627</v>
       </c>
     </row>
     <row r="66">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.06507627141275099</v>
+        <v>0.8906660471393891</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02918750184990838</v>
+        <v>0.2668831928358418</v>
       </c>
       <c r="H66" t="n">
-        <v>3392573603.99548</v>
+        <v>90169376006.60074</v>
       </c>
     </row>
     <row r="67">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.03933808479120351</v>
+        <v>0.9625475997232761</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3407494919.166691</v>
+        <v>78447523902.77794</v>
       </c>
       <c r="G67" t="n">
-        <v>-11958057.39513978</v>
+        <v>12011186540.41745</v>
       </c>
       <c r="H67" t="n">
-        <v>74680.58462572716</v>
+        <v>-290904766.4688935</v>
       </c>
     </row>
     <row r="68">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.02671328518024693</v>
+        <v>0.397422208274576</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-5189725.457219189</v>
+        <v>5902409019.209111</v>
       </c>
       <c r="H68" t="n">
-        <v>3315951420.24006</v>
+        <v>99021248259.134</v>
       </c>
     </row>
     <row r="69">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.1395695525250229</v>
+        <v>0.3904017446780201</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2622,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-318176646.0428457</v>
+        <v>65364930261.08141</v>
       </c>
       <c r="H69" t="n">
-        <v>4199922934.159369</v>
+        <v>12830651591.09781</v>
       </c>
     </row>
     <row r="70">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.01866153126398071</v>
+        <v>0.3512575542448853</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0007457876290961266</v>
+        <v>0.03639025945032485</v>
       </c>
       <c r="H70" t="n">
-        <v>3150234300.543492</v>
+        <v>105723800501.9025</v>
       </c>
     </row>
     <row r="71">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.01866153126398071</v>
+        <v>0.3512575542448853</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9992544904013763</v>
+        <v>1.037060490184628</v>
       </c>
       <c r="H71" t="n">
-        <v>3150234300.543492</v>
+        <v>105723800501.9025</v>
       </c>
     </row>
     <row r="72">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.1057642842944933</v>
+        <v>0.3281534608441087</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.04762152262879745</v>
+        <v>0.3930035756267821</v>
       </c>
       <c r="H72" t="n">
-        <v>3600641954.261712</v>
+        <v>63681359997.85094</v>
       </c>
     </row>
     <row r="73">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.06811175216131607</v>
+        <v>0.4073628439712838</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3683137555.028706</v>
+        <v>68275190259.09763</v>
       </c>
       <c r="G73" t="n">
-        <v>-30512907.16678094</v>
+        <v>11596123463.66029</v>
       </c>
       <c r="H73" t="n">
-        <v>294455.6012739737</v>
+        <v>-227748577.7780471</v>
       </c>
     </row>
     <row r="74">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.01484503110160382</v>
+        <v>0.5395892226462514</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.05163198256005585</v>
+        <v>71.25309174176144</v>
       </c>
       <c r="H74" t="n">
-        <v>13.2367430098312</v>
+        <v>16685.34051682996</v>
       </c>
     </row>
     <row r="75">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.1027702529057889</v>
+        <v>0.742720257730239</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.681141205164228</v>
+        <v>1180.215036818522</v>
       </c>
       <c r="H75" t="n">
-        <v>41.01357936137146</v>
+        <v>14678.77866482513</v>
       </c>
     </row>
     <row r="76">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.003925139218560739</v>
+        <v>0.5280233477943307</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0003333075529727423</v>
+        <v>0.004118723467680853</v>
       </c>
       <c r="H76" t="n">
-        <v>7.088218144416075</v>
+        <v>16675.04928885032</v>
       </c>
     </row>
     <row r="77">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.003925139218560739</v>
+        <v>0.5280233477943307</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9996667479878188</v>
+        <v>1.004127217066107</v>
       </c>
       <c r="H77" t="n">
-        <v>7.088218144416075</v>
+        <v>16675.04928885032</v>
       </c>
     </row>
     <row r="78">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.04795407749519233</v>
+        <v>0.7314613047076954</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2910,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.0658709889722835</v>
+        <v>0.06843971272970001</v>
       </c>
       <c r="H78" t="n">
-        <v>9.087272228618378</v>
+        <v>14840.1610795878</v>
       </c>
     </row>
     <row r="79">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.0393603048056392</v>
+        <v>0.876642536948942</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2939,13 +2939,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>21.33240966425225</v>
+        <v>14639.54225267064</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3100043225947704</v>
+        <v>372.1951840920918</v>
       </c>
       <c r="H79" t="n">
-        <v>0.001381670267565319</v>
+        <v>-9.119457343949406</v>
       </c>
     </row>
     <row r="80">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.03563509727567579</v>
+        <v>0.002600427534383395</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2974,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.613849417065161</v>
+        <v>5.64113206160983</v>
       </c>
       <c r="H80" t="n">
-        <v>98.28850793468047</v>
+        <v>18213.58179943789</v>
       </c>
     </row>
     <row r="81">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.06061819768207072</v>
+        <v>0.0219618730365634</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-53.96058943665574</v>
+        <v>164.4422519375481</v>
       </c>
       <c r="H81" t="n">
-        <v>217.3637703049189</v>
+        <v>17892.01552897464</v>
       </c>
     </row>
     <row r="82">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3026,7 +3026,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>0.004339966142575048</v>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -3035,8 +3037,12 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.0004058273295512704</v>
+      </c>
+      <c r="H82" t="n">
+        <v>18189.45633090591</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3044,7 +3050,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3052,7 +3058,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>0.004339966142575048</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -3061,8 +3069,12 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>1.000405909688603</v>
+      </c>
+      <c r="H83" t="n">
+        <v>18189.45633090591</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3070,7 +3082,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3078,7 +3090,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>0.02681094576547836</v>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -3087,8 +3101,12 @@
       <c r="F84" t="n">
         <v>0</v>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.01011786836737412</v>
+      </c>
+      <c r="H84" t="n">
+        <v>17844.63242961934</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3096,7 +3114,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3105,7 +3123,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.06606502613627535</v>
+        <v>0.1916752356678007</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3113,13 +3131,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>179.1996322384569</v>
+        <v>16661.73745348408</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.462846354687559</v>
+        <v>324.7119321642571</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07132923094661464</v>
+        <v>-14.50321818648407</v>
       </c>
     </row>
     <row r="86">
@@ -3128,7 +3146,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3137,7 +3155,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.01818089069340606</v>
+        <v>0.5545859899117024</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3148,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.03960888821297676</v>
+        <v>48247.40135101824</v>
       </c>
       <c r="H86" t="n">
-        <v>9.813400178734772</v>
+        <v>4809020.812585794</v>
       </c>
     </row>
     <row r="87">
@@ -3160,7 +3178,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3169,7 +3187,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.1167943757273013</v>
+        <v>0.7854450554950813</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3180,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.675342849876064</v>
+        <v>1014017.55187528</v>
       </c>
       <c r="H87" t="n">
-        <v>25.70188794884347</v>
+        <v>2870194.108829183</v>
       </c>
     </row>
     <row r="88">
@@ -3192,7 +3210,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3201,7 +3219,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.00902420069351763</v>
+        <v>0.5170071510586791</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3212,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0005907842646580469</v>
+        <v>0.00914891933366933</v>
       </c>
       <c r="H88" t="n">
-        <v>6.131800000999682</v>
+        <v>4768435.510556441</v>
       </c>
     </row>
     <row r="89">
@@ -3224,7 +3242,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3233,7 +3251,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.00902420069351763</v>
+        <v>0.5170071510586791</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3244,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9994093902140043</v>
+        <v>1.009190898620194</v>
       </c>
       <c r="H89" t="n">
-        <v>6.131800000999682</v>
+        <v>4768435.510556441</v>
       </c>
     </row>
     <row r="90">
@@ -3256,7 +3274,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3265,7 +3283,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.07897519932912789</v>
+        <v>0.7505267542812626</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3276,10 +3294,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08139305261321071</v>
+        <v>0.1946716456001952</v>
       </c>
       <c r="H90" t="n">
-        <v>8.146975305369498</v>
+        <v>3278407.947658977</v>
       </c>
     </row>
     <row r="91">
@@ -3288,7 +3306,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3297,7 +3315,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.04831185457102698</v>
+        <v>0.8909933675512883</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3305,13 +3323,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>14.91600726308935</v>
+        <v>3239660.336117938</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2384117616293891</v>
+        <v>232625.8179852199</v>
       </c>
       <c r="H91" t="n">
-        <v>0.001299365185728186</v>
+        <v>-4287.870154283762</v>
       </c>
     </row>
     <row r="92">
@@ -3320,7 +3338,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3329,7 +3347,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.04996820963426928</v>
+        <v>0.131826766343539</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3340,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2844156785915746</v>
+        <v>-81506.35379690959</v>
       </c>
       <c r="H92" t="n">
-        <v>16.76864987926633</v>
+        <v>7872517.140568454</v>
       </c>
     </row>
     <row r="93">
@@ -3352,7 +3370,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3361,7 +3379,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.2111534713099578</v>
+        <v>0.2100907401455505</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3372,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.81102610220373</v>
+        <v>-1415472.467812209</v>
       </c>
       <c r="H93" t="n">
-        <v>41.97708855885491</v>
+        <v>10345848.9936513</v>
       </c>
     </row>
     <row r="94">
@@ -3384,7 +3402,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3393,7 +3411,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.03720416357846163</v>
+        <v>0.1257923539972936</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3404,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.005190935497587359</v>
+        <v>-0.008694758433597342</v>
       </c>
       <c r="H94" t="n">
-        <v>7.053816563319957</v>
+        <v>7425460.539764975</v>
       </c>
     </row>
     <row r="95">
@@ -3416,7 +3434,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3425,7 +3443,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.03720416357846163</v>
+        <v>0.1257923539972936</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3436,10 +3454,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9948225141259766</v>
+        <v>0.9913429316639787</v>
       </c>
       <c r="H95" t="n">
-        <v>7.053816563319957</v>
+        <v>7425460.539764975</v>
       </c>
     </row>
     <row r="96">
@@ -3448,7 +3466,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3457,7 +3475,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.174007750990896</v>
+        <v>0.1926188324324223</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3468,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2075846905001051</v>
+        <v>-0.1480089836625482</v>
       </c>
       <c r="H96" t="n">
-        <v>11.53558456144697</v>
+        <v>9590626.24984532</v>
       </c>
     </row>
     <row r="97">
@@ -3480,7 +3498,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3489,7 +3507,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.1285414418621947</v>
+        <v>0.2580234978067065</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3497,13 +3515,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>30.59829329025792</v>
+        <v>10730210.05399306</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.690820093268686</v>
+        <v>-512856.227521378</v>
       </c>
       <c r="H97" t="n">
-        <v>0.02424835197719157</v>
+        <v>13479.68355388964</v>
       </c>
     </row>
     <row r="98">
@@ -3512,7 +3530,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3521,7 +3539,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.4885746488032252</v>
+        <v>0.3050369077645125</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3532,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>219.4747775725567</v>
+        <v>0.0009880030427011086</v>
       </c>
       <c r="H98" t="n">
-        <v>13764.49007860993</v>
+        <v>5.672863881863099</v>
       </c>
     </row>
     <row r="99">
@@ -3544,7 +3562,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3553,7 +3571,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.8401100583727596</v>
+        <v>0.6063559012102421</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3564,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>2803.434850274383</v>
+        <v>0.07614796394698273</v>
       </c>
       <c r="H99" t="n">
-        <v>10149.57178602087</v>
+        <v>5.435600088310911</v>
       </c>
     </row>
     <row r="100">
@@ -3576,7 +3594,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3585,7 +3603,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.4270603371810137</v>
+        <v>0.2976595780582977</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3596,10 +3614,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01557646008503169</v>
+        <v>0.0001749824343152305</v>
       </c>
       <c r="H100" t="n">
-        <v>13311.26943909908</v>
+        <v>5.671451960375965</v>
       </c>
     </row>
     <row r="101">
@@ -3608,7 +3626,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3617,7 +3635,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.4270603371810137</v>
+        <v>0.2976595780582977</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3628,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1.015698405475876</v>
+        <v>1.000174997744634</v>
       </c>
       <c r="H101" t="n">
-        <v>13311.26943909908</v>
+        <v>5.671451960375965</v>
       </c>
     </row>
     <row r="102">
@@ -3640,7 +3658,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3649,7 +3667,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.7889603466148023</v>
+        <v>0.596807098192172</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3660,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2062314795907771</v>
+        <v>0.01354452930512319</v>
       </c>
       <c r="H102" t="n">
-        <v>10119.19263900779</v>
+        <v>5.436761182845254</v>
       </c>
     </row>
     <row r="103">
@@ -3672,7 +3690,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3681,7 +3699,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.826742321348155</v>
+        <v>0.5335946908760021</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3689,13 +3707,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>10092.92248531329</v>
+        <v>5.575792080493695</v>
       </c>
       <c r="G103" t="n">
-        <v>953.7882962318822</v>
+        <v>0.004502015681621252</v>
       </c>
       <c r="H103" t="n">
-        <v>-25.32115581583882</v>
+        <v>-2.238224610777161e-05</v>
       </c>
     </row>
     <row r="104">
@@ -3704,7 +3722,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3713,7 +3731,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.4917169649899619</v>
+        <v>0.3998150029304042</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3724,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>452.7545400213884</v>
+        <v>0.001433230998098228</v>
       </c>
       <c r="H104" t="n">
-        <v>12660.51519278934</v>
+        <v>5.717998567470841</v>
       </c>
     </row>
     <row r="105">
@@ -3736,7 +3754,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3745,7 +3763,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.8021208383732418</v>
+        <v>0.4748518697661991</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3756,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>3669.564976476971</v>
+        <v>0.03770934613639571</v>
       </c>
       <c r="H105" t="n">
-        <v>9503.009343163569</v>
+        <v>5.639184770436885</v>
       </c>
     </row>
     <row r="106">
@@ -3768,7 +3786,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3777,7 +3795,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.464938831828182</v>
+        <v>0.3942762061094064</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3788,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03351631426682228</v>
+        <v>0.0002500606729703046</v>
       </c>
       <c r="H106" t="n">
-        <v>12076.33909766507</v>
+        <v>5.717826531559876</v>
       </c>
     </row>
     <row r="107">
@@ -3800,7 +3818,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3809,7 +3827,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.464938831828182</v>
+        <v>0.3942762061094064</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3820,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1.03408431391608</v>
+        <v>1.000250091940747</v>
       </c>
       <c r="H107" t="n">
-        <v>12076.33909766507</v>
+        <v>5.717826531559876</v>
       </c>
     </row>
     <row r="108">
@@ -3832,7 +3850,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3841,7 +3859,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.7890780231354079</v>
+        <v>0.470900052806587</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3852,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2770816611649759</v>
+        <v>0.006597702935897843</v>
       </c>
       <c r="H108" t="n">
-        <v>9457.40816010016</v>
+        <v>5.639399716677561</v>
       </c>
     </row>
     <row r="109">
@@ -3864,7 +3882,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3873,7 +3891,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.8744039809124464</v>
+        <v>0.4129398697489364</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3881,13 +3899,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>7437.45372785916</v>
+        <v>5.704193208323043</v>
       </c>
       <c r="G109" t="n">
-        <v>2102.14237105197</v>
+        <v>0.002610579371088056</v>
       </c>
       <c r="H109" t="n">
-        <v>-91.63265727947669</v>
+        <v>-1.898948988693246e-05</v>
       </c>
     </row>
     <row r="110">
@@ -3905,7 +3923,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.1539302169093381</v>
+        <v>0.599692366288347</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3916,10 +3934,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>-809828.7693032254</v>
+        <v>1354.366576738822</v>
       </c>
       <c r="H110" t="n">
-        <v>19798997.62917976</v>
+        <v>9529085.813273231</v>
       </c>
     </row>
     <row r="111">
@@ -3937,7 +3955,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.3890252935405416</v>
+        <v>0.748168835180596</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3948,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>-8571441.276755799</v>
+        <v>15754.83453180925</v>
       </c>
       <c r="H111" t="n">
-        <v>29436814.39535681</v>
+        <v>9507279.99285336</v>
       </c>
     </row>
     <row r="112">
@@ -3969,7 +3987,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.1468362552362816</v>
+        <v>0.5994029168431985</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3980,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.03008858653434372</v>
+        <v>0.0001419723790216266</v>
       </c>
       <c r="H112" t="n">
-        <v>13967444.57709112</v>
+        <v>9529087.741468189</v>
       </c>
     </row>
     <row r="113">
@@ -4001,7 +4019,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.1468362552362816</v>
+        <v>0.5994029168431985</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4012,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.970359568949631</v>
+        <v>1.000141982457577</v>
       </c>
       <c r="H113" t="n">
-        <v>13967444.57709112</v>
+        <v>9529087.741468189</v>
       </c>
     </row>
     <row r="114">
@@ -4033,7 +4051,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.376318426548904</v>
+        <v>0.7478907818198881</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4044,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.3206982223666112</v>
+        <v>0.001651602745029557</v>
       </c>
       <c r="H114" t="n">
-        <v>20072075.75887289</v>
+        <v>9507328.867212238</v>
       </c>
     </row>
     <row r="115">
@@ -4065,7 +4083,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.3612460899475217</v>
+        <v>0.8819838492423193</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4073,13 +4091,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>32685958.93363594</v>
+        <v>9498957.56653632</v>
       </c>
       <c r="G115" t="n">
-        <v>-4675917.160640079</v>
+        <v>7328.070671123788</v>
       </c>
       <c r="H115" t="n">
-        <v>203478.3363861502</v>
+        <v>-259.7262649732754</v>
       </c>
     </row>
     <row r="116">
@@ -4097,7 +4115,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.1954453932709297</v>
+        <v>0.7018031503734053</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4108,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>-1320646.773263021</v>
+        <v>892.0625992861661</v>
       </c>
       <c r="H116" t="n">
-        <v>22745798.67516877</v>
+        <v>9538588.445796564</v>
       </c>
     </row>
     <row r="117">
@@ -4129,7 +4147,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.4403488204739763</v>
+        <v>0.8167472759489154</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4140,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>-10712522.21649387</v>
+        <v>8524.903011266029</v>
       </c>
       <c r="H117" t="n">
-        <v>32116770.48860318</v>
+        <v>9528297.028824802</v>
       </c>
     </row>
     <row r="118">
@@ -4161,7 +4179,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.1872622137903047</v>
+        <v>0.7016868928827009</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4172,10 +4190,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.04918975110556049</v>
+        <v>9.345530139178278e-05</v>
       </c>
       <c r="H118" t="n">
-        <v>15600561.95594433</v>
+        <v>9538590.187662026</v>
       </c>
     </row>
     <row r="119">
@@ -4193,7 +4211,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.1872622137903047</v>
+        <v>0.7016868928827009</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4204,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.9520004694172368</v>
+        <v>1.000093459668475</v>
       </c>
       <c r="H119" t="n">
-        <v>15600561.95594433</v>
+        <v>9538590.187662026</v>
       </c>
     </row>
     <row r="120">
@@ -4225,7 +4243,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.4271931802590164</v>
+        <v>0.8166434111156801</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4236,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.4014958544821717</v>
+        <v>0.000893113010617749</v>
       </c>
       <c r="H120" t="n">
-        <v>22216262.81365557</v>
+        <v>9528311.229219146</v>
       </c>
     </row>
     <row r="121">
@@ -4257,7 +4275,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.4423140308540966</v>
+        <v>0.9377159202492423</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4265,13 +4283,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>39340212.72477094</v>
+        <v>9521824.074730998</v>
       </c>
       <c r="G121" t="n">
-        <v>-7543552.041863836</v>
+        <v>4776.490041308821</v>
       </c>
       <c r="H121" t="n">
-        <v>414860.3512400544</v>
+        <v>-204.4435495800936</v>
       </c>
     </row>
   </sheetData>
